--- a/runs/run702/NotionalETEOutput702.xlsx
+++ b/runs/run702/NotionalETEOutput702.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HIGHWIND1_State_Update</t>
+    <t>Missile_ANGERMAX2_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND1_3.MISSILE_HIGHWIND1_3</t>
+    <t>MISSILE_ANGERMAX2_337.MISSILE_ANGERMAX2_337</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND1</t>
+    <t>MISSILE_ANGERMAX2</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1434.580586624713</v>
+        <v>-1444.689163002704</v>
       </c>
       <c r="J2">
-        <v>2008.898141981522</v>
+        <v>1939.869930846933</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1534.874898954254</v>
+        <v>-1538.568403371028</v>
       </c>
       <c r="J3">
-        <v>1928.259616457814</v>
+        <v>2008.95313117046</v>
       </c>
       <c r="K3">
-        <v>296.984859370759</v>
+        <v>292.5615101487057</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1484.200229879415</v>
+        <v>-1408.921056473833</v>
       </c>
       <c r="J4">
-        <v>1865.22535150884</v>
+        <v>1971.565370421008</v>
       </c>
       <c r="K4">
-        <v>606.265039906365</v>
+        <v>591.8701436047988</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1472.47547810193</v>
+        <v>-1457.447144166638</v>
       </c>
       <c r="J5">
-        <v>1823.560022897162</v>
+        <v>1807.613401727843</v>
       </c>
       <c r="K5">
-        <v>905.9576137077087</v>
+        <v>835.2518360607514</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1438.89688114843</v>
+        <v>-1374.936391176693</v>
       </c>
       <c r="J6">
-        <v>1767.055062451556</v>
+        <v>1859.045723578637</v>
       </c>
       <c r="K6">
-        <v>1086.473474225619</v>
+        <v>1078.218416554264</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1389.618478516063</v>
+        <v>-1352.892650557977</v>
       </c>
       <c r="J7">
-        <v>1816.996139037743</v>
+        <v>1780.252430224085</v>
       </c>
       <c r="K7">
-        <v>1388.776311597387</v>
+        <v>1327.192268727858</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1354.677275725523</v>
+        <v>-1321.745374847613</v>
       </c>
       <c r="J8">
-        <v>1722.815715724048</v>
+        <v>1730.112048902971</v>
       </c>
       <c r="K8">
-        <v>1621.161442569162</v>
+        <v>1594.903377890652</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-95.22777473059003</v>
+        <v>-96.12047086944493</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1237.636977804773</v>
+        <v>-1270.491992381402</v>
       </c>
       <c r="J9">
-        <v>1714.793919049923</v>
+        <v>1704.255961877605</v>
       </c>
       <c r="K9">
-        <v>1844.236621699578</v>
+        <v>1774.600514776809</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>223.3882500922496</v>
+        <v>209.628039963045</v>
       </c>
       <c r="G10">
-        <v>-79.62541396858975</v>
+        <v>-86.28047076990597</v>
       </c>
       <c r="H10">
-        <v>818.1440248029178</v>
+        <v>820.3492940209928</v>
       </c>
       <c r="I10">
-        <v>-1229.504295036136</v>
+        <v>-1224.110612486812</v>
       </c>
       <c r="J10">
-        <v>1675.265814020426</v>
+        <v>1539.426515515778</v>
       </c>
       <c r="K10">
-        <v>1945.148871678304</v>
+        <v>1999.278579330755</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>166.6500915382767</v>
+        <v>175.9770665808278</v>
       </c>
       <c r="G11">
-        <v>-65.97927137265313</v>
+        <v>-63.72011641193102</v>
       </c>
       <c r="H11">
-        <v>1065.934499343334</v>
+        <v>1027.487909000567</v>
       </c>
       <c r="I11">
-        <v>-1174.555327117965</v>
+        <v>-1172.621050367037</v>
       </c>
       <c r="J11">
-        <v>1629.930033083713</v>
+        <v>1597.873895362684</v>
       </c>
       <c r="K11">
-        <v>2230.251926003059</v>
+        <v>2200.873968871609</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>138.2053666508306</v>
+        <v>135.5792515626979</v>
       </c>
       <c r="G12">
-        <v>-51.84740376929965</v>
+        <v>-48.72944214269766</v>
       </c>
       <c r="H12">
-        <v>1187.18353306608</v>
+        <v>1160.823261997171</v>
       </c>
       <c r="I12">
-        <v>-1134.417071475216</v>
+        <v>-1111.668985415443</v>
       </c>
       <c r="J12">
-        <v>1505.580793765616</v>
+        <v>1545.170055340979</v>
       </c>
       <c r="K12">
-        <v>2425.662787315568</v>
+        <v>2345.177704271788</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>121.4082417611882</v>
+        <v>121.8959431505027</v>
       </c>
       <c r="G13">
-        <v>-34.68205442429465</v>
+        <v>-33.59137700270534</v>
       </c>
       <c r="H13">
-        <v>1236.328549375778</v>
+        <v>1281.404754854572</v>
       </c>
       <c r="I13">
-        <v>-1127.142700526603</v>
+        <v>-1079.001883009261</v>
       </c>
       <c r="J13">
-        <v>1482.108571518564</v>
+        <v>1447.876783945521</v>
       </c>
       <c r="K13">
-        <v>2476.13045071528</v>
+        <v>2593.922955633423</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>112.6707767641405</v>
+        <v>104.825528776322</v>
       </c>
       <c r="G14">
-        <v>-17.94519803714111</v>
+        <v>-17.40865676337856</v>
       </c>
       <c r="H14">
-        <v>1294.599040427866</v>
+        <v>1339.285234777884</v>
       </c>
       <c r="I14">
-        <v>-1095.153241881792</v>
+        <v>-1058.55022541405</v>
       </c>
       <c r="J14">
-        <v>1378.72344504186</v>
+        <v>1432.912600489341</v>
       </c>
       <c r="K14">
-        <v>2709.309098225584</v>
+        <v>2776.219528338895</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>98.69440254465245</v>
+        <v>98.81596351888801</v>
       </c>
       <c r="G15">
-        <v>-0.9170664265570524</v>
+        <v>-0.8802441547743541</v>
       </c>
       <c r="H15">
-        <v>1445.537547666205</v>
+        <v>1377.385969105882</v>
       </c>
       <c r="I15">
-        <v>-1059.617352857416</v>
+        <v>-1035.233931400771</v>
       </c>
       <c r="J15">
-        <v>1435.476323106018</v>
+        <v>1433.988620620527</v>
       </c>
       <c r="K15">
-        <v>2731.106555659295</v>
+        <v>2776.361468357646</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>91.78336929811464</v>
+        <v>90.21751923777465</v>
       </c>
       <c r="G16">
-        <v>15.74901130879668</v>
+        <v>15.66065528261185</v>
       </c>
       <c r="H16">
-        <v>1442.10875084397</v>
+        <v>1491.337622253851</v>
       </c>
       <c r="I16">
-        <v>-1056.607412525255</v>
+        <v>-976.9347070775968</v>
       </c>
       <c r="J16">
-        <v>1317.314526818148</v>
+        <v>1351.794088346818</v>
       </c>
       <c r="K16">
-        <v>2830.508823595805</v>
+        <v>2824.265775875959</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>91.04369768379482</v>
+        <v>83.47363680607478</v>
       </c>
       <c r="G17">
-        <v>33.2254838896615</v>
+        <v>31.36857674445579</v>
       </c>
       <c r="H17">
-        <v>1535.078170013479</v>
+        <v>1469.063659666201</v>
       </c>
       <c r="I17">
-        <v>-925.2678009023991</v>
+        <v>-971.366121055069</v>
       </c>
       <c r="J17">
-        <v>1276.953317602696</v>
+        <v>1290.754005832179</v>
       </c>
       <c r="K17">
-        <v>2948.634905749775</v>
+        <v>2899.825137084854</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>80.51253285004066</v>
+        <v>77.95495917445014</v>
       </c>
       <c r="G18">
-        <v>48.26763687617625</v>
+        <v>48.57425601425419</v>
       </c>
       <c r="H18">
-        <v>1503.730262495176</v>
+        <v>1520.276861665313</v>
       </c>
       <c r="I18">
-        <v>-891.2278692437505</v>
+        <v>-904.5665185321027</v>
       </c>
       <c r="J18">
-        <v>1238.455605967336</v>
+        <v>1170.257937017442</v>
       </c>
       <c r="K18">
-        <v>3101.741917611854</v>
+        <v>3075.352102237123</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>78.75811371515843</v>
+        <v>74.30091871124469</v>
       </c>
       <c r="G19">
-        <v>64.06760788022237</v>
+        <v>61.97732853306154</v>
       </c>
       <c r="H19">
-        <v>1573.787916465861</v>
+        <v>1519.513907770399</v>
       </c>
       <c r="I19">
-        <v>-854.4434765230523</v>
+        <v>-841.6571345150143</v>
       </c>
       <c r="J19">
-        <v>1157.828127684192</v>
+        <v>1217.228129420273</v>
       </c>
       <c r="K19">
-        <v>3061.93425311869</v>
+        <v>2968.605278420425</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>71.94627843119532</v>
+        <v>70.91492937183862</v>
       </c>
       <c r="G20">
-        <v>81.11348369106209</v>
+        <v>77.70427920561887</v>
       </c>
       <c r="H20">
-        <v>1616.955215633074</v>
+        <v>1491.328359398406</v>
       </c>
       <c r="I20">
-        <v>-824.3901394425028</v>
+        <v>-872.739420442181</v>
       </c>
       <c r="J20">
-        <v>1086.258711653053</v>
+        <v>1157.681966579214</v>
       </c>
       <c r="K20">
-        <v>3203.91674820556</v>
+        <v>3199.522228143159</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>69.85590507300581</v>
+        <v>71.92720135501776</v>
       </c>
       <c r="G21">
-        <v>95.28755808384805</v>
+        <v>98.52452455577252</v>
       </c>
       <c r="H21">
-        <v>1528.910377302639</v>
+        <v>1534.131324798676</v>
       </c>
       <c r="I21">
-        <v>-811.0358416459242</v>
+        <v>-797.0305644159225</v>
       </c>
       <c r="J21">
-        <v>1029.631552234532</v>
+        <v>1098.789196088125</v>
       </c>
       <c r="K21">
-        <v>3078.276572890877</v>
+        <v>3265.818240939172</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>65.21844800354411</v>
+        <v>66.51492998657187</v>
       </c>
       <c r="G22">
-        <v>118.7161689222356</v>
+        <v>110.9258062289685</v>
       </c>
       <c r="H22">
-        <v>1611.403702948943</v>
+        <v>1537.196579470141</v>
       </c>
       <c r="I22">
-        <v>-751.7668381502971</v>
+        <v>-772.4650735442598</v>
       </c>
       <c r="J22">
-        <v>1076.309791178119</v>
+        <v>992.1039348099451</v>
       </c>
       <c r="K22">
-        <v>3315.697458543952</v>
+        <v>3272.37647568161</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>67.42145867092518</v>
+        <v>65.08663672397736</v>
       </c>
       <c r="G23">
-        <v>134.9743470916891</v>
+        <v>134.4358403438812</v>
       </c>
       <c r="H23">
-        <v>1645.995563781158</v>
+        <v>1666.630431222668</v>
       </c>
       <c r="I23">
-        <v>-689.0984749981274</v>
+        <v>-693.3984336248349</v>
       </c>
       <c r="J23">
-        <v>958.2986942484829</v>
+        <v>937.1222086021343</v>
       </c>
       <c r="K23">
-        <v>3146.696305363193</v>
+        <v>3231.13080393643</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>65.76659463045816</v>
+        <v>66.62891171194013</v>
       </c>
       <c r="G24">
-        <v>147.8579735080519</v>
+        <v>146.4862509865082</v>
       </c>
       <c r="H24">
-        <v>1683.194461872293</v>
+        <v>1679.222739935864</v>
       </c>
       <c r="I24">
-        <v>-654.6972957428274</v>
+        <v>-654.8590269437323</v>
       </c>
       <c r="J24">
-        <v>921.6098321628207</v>
+        <v>912.7285827308157</v>
       </c>
       <c r="K24">
-        <v>3275.92466365644</v>
+        <v>3201.050662633109</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>62.92825006350917</v>
+        <v>61.63850813061952</v>
       </c>
       <c r="G25">
-        <v>157.3747235076855</v>
+        <v>165.0495041363534</v>
       </c>
       <c r="H25">
-        <v>1645.691147588147</v>
+        <v>1729.111880038605</v>
       </c>
       <c r="I25">
-        <v>-607.5274624752346</v>
+        <v>-583.5768152045275</v>
       </c>
       <c r="J25">
-        <v>899.2693002419699</v>
+        <v>860.9871833150219</v>
       </c>
       <c r="K25">
-        <v>3095.768157485054</v>
+        <v>3255.019235255374</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>62.16242736492624</v>
+        <v>58.2908897694659</v>
       </c>
       <c r="G26">
-        <v>185.078434579863</v>
+        <v>178.7718397990315</v>
       </c>
       <c r="H26">
-        <v>1691.724794750036</v>
+        <v>1633.279116655169</v>
       </c>
       <c r="I26">
-        <v>-528.9922565681097</v>
+        <v>-527.2200868284806</v>
       </c>
       <c r="J26">
-        <v>859.2262685393434</v>
+        <v>834.5047488254608</v>
       </c>
       <c r="K26">
-        <v>3237.735481143687</v>
+        <v>3134.678238979269</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>58.1066223058822</v>
+        <v>59.73566045511693</v>
       </c>
       <c r="G27">
-        <v>203.8855098340963</v>
+        <v>196.5815628113357</v>
       </c>
       <c r="H27">
-        <v>1785.493329328436</v>
+        <v>1751.24654871456</v>
       </c>
       <c r="I27">
-        <v>-482.4540846668677</v>
+        <v>-500.7806220406546</v>
       </c>
       <c r="J27">
-        <v>782.4360402783357</v>
+        <v>771.2960475280737</v>
       </c>
       <c r="K27">
-        <v>3165.971363498963</v>
+        <v>2968.227318392625</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>56.06009256337894</v>
+        <v>58.20598164405895</v>
       </c>
       <c r="G28">
-        <v>210.3543339993246</v>
+        <v>216.4563508026687</v>
       </c>
       <c r="H28">
-        <v>1784.257162532155</v>
+        <v>1704.45305203115</v>
       </c>
       <c r="I28">
-        <v>-418.0109155359259</v>
+        <v>-434.9313142145347</v>
       </c>
       <c r="J28">
-        <v>764.9751346873024</v>
+        <v>752.1311010995137</v>
       </c>
       <c r="K28">
-        <v>2921.828720472254</v>
+        <v>3039.64003202154</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>52.74199869440488</v>
+        <v>57.08028931388538</v>
       </c>
       <c r="G29">
-        <v>241.0786804520779</v>
+        <v>229.4229667193034</v>
       </c>
       <c r="H29">
-        <v>1771.06007938887</v>
+        <v>1677.385907179238</v>
       </c>
       <c r="I29">
-        <v>-382.2893853310431</v>
+        <v>-371.2559559428342</v>
       </c>
       <c r="J29">
-        <v>670.1189916004608</v>
+        <v>655.2469474077017</v>
       </c>
       <c r="K29">
-        <v>2944.005046419039</v>
+        <v>2862.835076853354</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>56.00645750516262</v>
+        <v>53.71418119739075</v>
       </c>
       <c r="G30">
-        <v>243.2073250513468</v>
+        <v>239.1608582291944</v>
       </c>
       <c r="H30">
-        <v>1670.928560480569</v>
+        <v>1735.833875868202</v>
       </c>
       <c r="I30">
-        <v>-331.8361029941006</v>
+        <v>-310.0759055495484</v>
       </c>
       <c r="J30">
-        <v>621.8112523722552</v>
+        <v>621.4145360661776</v>
       </c>
       <c r="K30">
-        <v>2817.063082543918</v>
+        <v>2843.353707240788</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>50.95375873908888</v>
+        <v>51.27069389145909</v>
       </c>
       <c r="G31">
-        <v>258.0611499096559</v>
+        <v>267.4237021708735</v>
       </c>
       <c r="H31">
-        <v>1811.96308776882</v>
+        <v>1783.334006247429</v>
       </c>
       <c r="I31">
-        <v>-279.1793988004449</v>
+        <v>-263.6337129256381</v>
       </c>
       <c r="J31">
-        <v>565.5543715834967</v>
+        <v>596.5947300562954</v>
       </c>
       <c r="K31">
-        <v>2665.348576728563</v>
+        <v>2605.465770906969</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>48.90180822799571</v>
+        <v>49.17480869719487</v>
       </c>
       <c r="G32">
-        <v>274.6412226604062</v>
+        <v>289.3679108361108</v>
       </c>
       <c r="H32">
-        <v>1718.090688571127</v>
+        <v>1851.409317452225</v>
       </c>
       <c r="I32">
-        <v>-197.5673428605733</v>
+        <v>-215.6004064445814</v>
       </c>
       <c r="J32">
-        <v>527.0000174769737</v>
+        <v>523.0149601625578</v>
       </c>
       <c r="K32">
-        <v>2485.145552984384</v>
+        <v>2501.880290769957</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>48.9362273135614</v>
+        <v>50.91872959604343</v>
       </c>
       <c r="G33">
-        <v>310.8016397412642</v>
+        <v>304.858520176689</v>
       </c>
       <c r="H33">
-        <v>1830.917196779706</v>
+        <v>1824.035978758191</v>
       </c>
       <c r="I33">
-        <v>-145.2546086699896</v>
+        <v>-139.3039764727801</v>
       </c>
       <c r="J33">
-        <v>490.3955917464628</v>
+        <v>515.880244864691</v>
       </c>
       <c r="K33">
-        <v>2425.151225802877</v>
+        <v>2434.462588441076</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>47.79748385728574</v>
+        <v>48.13626935753994</v>
       </c>
       <c r="G34">
-        <v>300.8049583352495</v>
+        <v>307.9076699893803</v>
       </c>
       <c r="H34">
-        <v>1776.861974032353</v>
+        <v>1809.586737737764</v>
       </c>
       <c r="I34">
-        <v>-85.93338746320474</v>
+        <v>-82.07737506049702</v>
       </c>
       <c r="J34">
-        <v>439.4603787392248</v>
+        <v>422.1171756607663</v>
       </c>
       <c r="K34">
-        <v>2268.021453664262</v>
+        <v>2263.556795738314</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>48.01938792208557</v>
+        <v>47.42107858349485</v>
       </c>
       <c r="G35">
-        <v>327.3064631966823</v>
+        <v>343.7491242454944</v>
       </c>
       <c r="H35">
-        <v>1778.721907078073</v>
+        <v>1751.034690792141</v>
       </c>
       <c r="I35">
-        <v>-19.40494485221322</v>
+        <v>-19.5818632340523</v>
       </c>
       <c r="J35">
-        <v>386.7180791413307</v>
+        <v>378.4907821694611</v>
       </c>
       <c r="K35">
-        <v>2071.392512725267</v>
+        <v>2103.306443491917</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>45.77590078109604</v>
+        <v>47.0891024737446</v>
       </c>
       <c r="G36">
-        <v>342.4672882284946</v>
+        <v>351.1574751876628</v>
       </c>
       <c r="H36">
-        <v>1751.534804626256</v>
+        <v>1828.551026836283</v>
       </c>
       <c r="I36">
-        <v>45.63185186746319</v>
+        <v>46.6329681195955</v>
       </c>
       <c r="J36">
-        <v>360.8523929769522</v>
+        <v>339.9751755975168</v>
       </c>
       <c r="K36">
-        <v>1912.09575209192</v>
+        <v>1905.523263830052</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>45.9851727871831</v>
+        <v>45.97450123584733</v>
       </c>
       <c r="G37">
-        <v>345.229311819267</v>
+        <v>360.9425009867912</v>
       </c>
       <c r="H37">
-        <v>1900.066723956684</v>
+        <v>1757.760434208509</v>
       </c>
       <c r="I37">
-        <v>118.7761796753349</v>
+        <v>115.0659872303565</v>
       </c>
       <c r="J37">
-        <v>311.2253558692525</v>
+        <v>285.6984343154962</v>
       </c>
       <c r="K37">
-        <v>1595.645425423509</v>
+        <v>1553.55572377174</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>47.72282273458449</v>
+        <v>43.76900501880078</v>
       </c>
       <c r="G38">
-        <v>395.3956678949714</v>
+        <v>364.2521370843475</v>
       </c>
       <c r="H38">
-        <v>1804.606779375112</v>
+        <v>1824.933348374004</v>
       </c>
       <c r="I38">
-        <v>186.1057593111996</v>
+        <v>179.0138566935663</v>
       </c>
       <c r="J38">
-        <v>237.9268077774975</v>
+        <v>243.1558668089831</v>
       </c>
       <c r="K38">
-        <v>1371.816574101435</v>
+        <v>1351.538739006049</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>44.50538072457206</v>
+        <v>44.23409130745635</v>
       </c>
       <c r="G39">
-        <v>376.6646851930935</v>
+        <v>377.5270208135672</v>
       </c>
       <c r="H39">
-        <v>1823.250949654462</v>
+        <v>1954.950990705131</v>
       </c>
       <c r="I39">
-        <v>252.0429091558394</v>
+        <v>258.5259297880503</v>
       </c>
       <c r="J39">
-        <v>195.0236775590007</v>
+        <v>190.2872124628718</v>
       </c>
       <c r="K39">
-        <v>1202.722829434192</v>
+        <v>1192.645878317868</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>46.02660343650435</v>
+        <v>44.42767444459183</v>
       </c>
       <c r="G40">
-        <v>426.61882851622</v>
+        <v>431.1224543179571</v>
       </c>
       <c r="H40">
-        <v>1877.857546912644</v>
+        <v>1884.26420791985</v>
       </c>
       <c r="I40">
-        <v>325.3448675513041</v>
+        <v>320.3532992630794</v>
       </c>
       <c r="J40">
-        <v>156.5684225071269</v>
+        <v>158.1661901253414</v>
       </c>
       <c r="K40">
-        <v>859.3082355786864</v>
+        <v>886.1221276438822</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>44.6902671454854</v>
+        <v>41.42575951225863</v>
       </c>
       <c r="G41">
-        <v>422.4954223596426</v>
+        <v>407.1206014495019</v>
       </c>
       <c r="H41">
-        <v>1956.964548307607</v>
+        <v>1885.041321122857</v>
       </c>
       <c r="I41">
-        <v>383.6764306194117</v>
+        <v>416.6434261636522</v>
       </c>
       <c r="J41">
-        <v>101.1988952606434</v>
+        <v>106.5645185256812</v>
       </c>
       <c r="K41">
-        <v>638.1665345375485</v>
+        <v>645.3566869948685</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>41.83750967239058</v>
+        <v>42.64414839462808</v>
       </c>
       <c r="G42">
-        <v>457.4878905998418</v>
+        <v>425.0304533037637</v>
       </c>
       <c r="H42">
-        <v>1856.861966339475</v>
+        <v>1864.854943034048</v>
       </c>
       <c r="I42">
-        <v>490.9983998147864</v>
+        <v>502.7933703560083</v>
       </c>
       <c r="J42">
-        <v>53.35110373813129</v>
+        <v>54.11172261059162</v>
       </c>
       <c r="K42">
-        <v>338.6495152305444</v>
+        <v>352.3402993626949</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>43.22946438870356</v>
+        <v>41.56115931951084</v>
       </c>
       <c r="G43">
-        <v>467.7953140015604</v>
+        <v>464.3375920260974</v>
       </c>
       <c r="H43">
-        <v>1910.743832134289</v>
+        <v>1973.020085084483</v>
       </c>
       <c r="I43">
-        <v>535.7308108503184</v>
+        <v>552.9142470521664</v>
       </c>
       <c r="J43">
-        <v>5.464061015230079</v>
+        <v>5.02441866802971</v>
       </c>
       <c r="K43">
-        <v>35.26896762737493</v>
+        <v>35.2563520446108</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>42.08837113636542</v>
+        <v>42.36779379510904</v>
       </c>
       <c r="G44">
-        <v>478.4151005026281</v>
+        <v>464.5745567458412</v>
       </c>
       <c r="H44">
-        <v>1949.53536935122</v>
+        <v>1856.775161989943</v>
       </c>
       <c r="I44">
-        <v>627.1658219688087</v>
+        <v>608.1721871979091</v>
       </c>
       <c r="J44">
-        <v>-43.46207409878222</v>
+        <v>-44.29779918960993</v>
       </c>
       <c r="K44">
-        <v>-278.7852299949223</v>
+        <v>-285.2831840148133</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>42.56854396826542</v>
+        <v>39.08046084990661</v>
       </c>
       <c r="G45">
-        <v>497.8221048170117</v>
+        <v>504.6034129226672</v>
       </c>
       <c r="H45">
-        <v>1902.123115447042</v>
+        <v>1895.213872370288</v>
       </c>
       <c r="I45">
-        <v>695.5516561625981</v>
+        <v>734.8513327646948</v>
       </c>
       <c r="J45">
-        <v>-88.91165581487782</v>
+        <v>-92.93434061734723</v>
       </c>
       <c r="K45">
-        <v>-608.120963133489</v>
+        <v>-641.2021095980219</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>42.18368808747783</v>
+        <v>41.39669208268835</v>
       </c>
       <c r="G46">
-        <v>502.3149373343646</v>
+        <v>491.101824797934</v>
       </c>
       <c r="H46">
-        <v>1902.085159272058</v>
+        <v>1929.432865366923</v>
       </c>
       <c r="I46">
-        <v>824.0304197958534</v>
+        <v>780.6143980991944</v>
       </c>
       <c r="J46">
-        <v>-144.7274192415253</v>
+        <v>-139.1211447985216</v>
       </c>
       <c r="K46">
-        <v>-1002.666386390154</v>
+        <v>-940.5073069035474</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>39.94117393090199</v>
+        <v>38.09174109044107</v>
       </c>
       <c r="G47">
-        <v>543.7639846764305</v>
+        <v>525.1002466673054</v>
       </c>
       <c r="H47">
-        <v>1880.31799160142</v>
+        <v>1863.026206484033</v>
       </c>
       <c r="I47">
-        <v>854.1285695921802</v>
+        <v>887.0060246728776</v>
       </c>
       <c r="J47">
-        <v>-195.1721104816845</v>
+        <v>-184.0474958564494</v>
       </c>
       <c r="K47">
-        <v>-1359.266937525578</v>
+        <v>-1391.815752768271</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>39.43290685819301</v>
+        <v>39.73429713587233</v>
       </c>
       <c r="G48">
-        <v>564.789977646277</v>
+        <v>543.3303921898317</v>
       </c>
       <c r="H48">
-        <v>1902.543641601879</v>
+        <v>1989.266075386563</v>
       </c>
       <c r="I48">
-        <v>953.2663298075357</v>
+        <v>983.6440159533448</v>
       </c>
       <c r="J48">
-        <v>-227.3796412299511</v>
+        <v>-226.709668272808</v>
       </c>
       <c r="K48">
-        <v>-1626.058154402433</v>
+        <v>-1712.782167468213</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>37.97778090877439</v>
+        <v>38.31293275515909</v>
       </c>
       <c r="G49">
-        <v>587.0821744705122</v>
+        <v>547.6879346976733</v>
       </c>
       <c r="H49">
-        <v>1920.541209163724</v>
+        <v>1860.084809839101</v>
       </c>
       <c r="I49">
-        <v>1043.490206181759</v>
+        <v>1042.20043234295</v>
       </c>
       <c r="J49">
-        <v>-274.8899287449264</v>
+        <v>-277.6156070508231</v>
       </c>
       <c r="K49">
-        <v>-2149.132392751467</v>
+        <v>-2089.46711130794</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>39.64265730704606</v>
+        <v>39.60805326313259</v>
       </c>
       <c r="G50">
-        <v>551.4377229108468</v>
+        <v>575.6587283300821</v>
       </c>
       <c r="H50">
-        <v>1863.605530854235</v>
+        <v>1936.601375885968</v>
       </c>
       <c r="I50">
-        <v>1191.913757523367</v>
+        <v>1128.911386015011</v>
       </c>
       <c r="J50">
-        <v>-318.5856600584183</v>
+        <v>-349.1307443086751</v>
       </c>
       <c r="K50">
-        <v>-2535.860545974857</v>
+        <v>-2447.409771213547</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>36.8245754377181</v>
+        <v>39.64296490216277</v>
       </c>
       <c r="G51">
-        <v>567.092888895725</v>
+        <v>613.6253040377496</v>
       </c>
       <c r="H51">
-        <v>1957.631858198712</v>
+        <v>1910.659301025011</v>
       </c>
       <c r="I51">
-        <v>1267.459375218391</v>
+        <v>1254.577789394428</v>
       </c>
       <c r="J51">
-        <v>-379.8699780534701</v>
+        <v>-372.9981714769348</v>
       </c>
       <c r="K51">
-        <v>-3011.358388722552</v>
+        <v>-2818.525765935032</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>36.0995693242931</v>
+        <v>37.96569659629282</v>
       </c>
       <c r="G52">
-        <v>603.4164699911194</v>
+        <v>597.8740157744246</v>
       </c>
       <c r="H52">
-        <v>2019.706696675959</v>
+        <v>1907.883451447534</v>
       </c>
       <c r="I52">
-        <v>1337.375123991879</v>
+        <v>1418.729644694231</v>
       </c>
       <c r="J52">
-        <v>-447.5212172818918</v>
+        <v>-420.160221199026</v>
       </c>
       <c r="K52">
-        <v>-3415.717921144673</v>
+        <v>-3506.9631356133</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>37.79474675728621</v>
+        <v>38.67222841001492</v>
       </c>
       <c r="G53">
-        <v>600.9762776438646</v>
+        <v>636.7360544328768</v>
       </c>
       <c r="H53">
-        <v>2057.742396919316</v>
+        <v>2025.465248233929</v>
       </c>
       <c r="I53">
-        <v>1414.075210412155</v>
+        <v>1418.459498920334</v>
       </c>
       <c r="J53">
-        <v>-471.4322219863628</v>
+        <v>-496.8836801662389</v>
       </c>
       <c r="K53">
-        <v>-3764.065152789801</v>
+        <v>-3875.54682514316</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>37.29349437247834</v>
+        <v>35.17197523747456</v>
       </c>
       <c r="G54">
-        <v>675.1030426816578</v>
+        <v>652.6183163619239</v>
       </c>
       <c r="H54">
-        <v>2001.788314867656</v>
+        <v>1893.944203206426</v>
       </c>
       <c r="I54">
-        <v>1598.804331101819</v>
+        <v>1512.899152579854</v>
       </c>
       <c r="J54">
-        <v>-518.9431488205528</v>
+        <v>-554.2096139984997</v>
       </c>
       <c r="K54">
-        <v>-4181.39381957123</v>
+        <v>-4278.160012081614</v>
       </c>
     </row>
   </sheetData>
